--- a/data/trans_orig/PCS12_SP-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Dificultad-trans_orig.xlsx
@@ -684,10 +684,10 @@
         <v>46.34278398701258</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>48.74233822886505</v>
+        <v>48.74233822886507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50.25647276674761</v>
+        <v>50.25647276674762</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>50.53095871390793</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>49.54698377096089</v>
+        <v>49.57425639858553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>51.10816396774262</v>
+        <v>51.20545616548376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51.51471555100342</v>
+        <v>51.48017013513925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47.43193440546079</v>
+        <v>47.29278785601112</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>46.97964212847211</v>
+        <v>47.01032711867829</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.16162785678363</v>
+        <v>48.16261250258961</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>48.42558208140992</v>
+        <v>48.48665673736029</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>45.46050762618314</v>
+        <v>45.50902757061607</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>48.1760173978311</v>
+        <v>48.21702483961521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49.80940902330674</v>
+        <v>49.76730463096406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50.08280584571805</v>
+        <v>50.0772961439486</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>46.61149419846486</v>
+        <v>46.67537139429838</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>51.08501891542424</v>
+        <v>51.07786244853749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>52.35974741009012</v>
+        <v>52.38147733670309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52.57317996207028</v>
+        <v>52.55792484617668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49.46754644556459</v>
+        <v>49.35046382524303</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>48.40961454314007</v>
+        <v>48.3292801888545</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>49.50955253430759</v>
+        <v>49.49478102925527</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>49.86224039262765</v>
+        <v>49.79929140916866</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>47.1928349354281</v>
+        <v>47.11954900647358</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>49.25409245483483</v>
+        <v>49.2700204646542</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50.70157502404561</v>
+        <v>50.69341742186592</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50.94322681280298</v>
+        <v>50.94728634210325</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>47.91953749782835</v>
+        <v>47.93167319868898</v>
       </c>
     </row>
     <row r="7">
@@ -808,13 +808,13 @@
         <v>51.02476860811677</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>50.93388715861319</v>
+        <v>50.93388715861318</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>49.49053518933201</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>50.75300797294391</v>
+        <v>50.7530079729439</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48.43563708709107</v>
@@ -823,13 +823,13 @@
         <v>51.9620921695614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50.84926375192517</v>
+        <v>50.84926375192518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51.83307687183491</v>
+        <v>51.83307687183492</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>49.63269510900755</v>
+        <v>49.63269510900756</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>52.50493370345745</v>
+        <v>52.51706673388696</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.73625676566873</v>
+        <v>51.7021649506277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52.46014751203695</v>
+        <v>52.46245740280848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50.40061677404294</v>
+        <v>50.38151285659609</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>50.39486673456775</v>
+        <v>50.39435109762838</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>48.79168546021132</v>
+        <v>48.76324150451793</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>50.04842708252379</v>
+        <v>49.97976366664933</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>47.84254323399384</v>
+        <v>47.9175871160264</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>51.62802289138105</v>
+        <v>51.58780752879347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50.38576662996009</v>
+        <v>50.37264980319969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.39889600948477</v>
+        <v>51.39600577759826</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>49.23290893759221</v>
+        <v>49.21676131207294</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.34581366560212</v>
+        <v>53.33481690654084</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.90835095503048</v>
+        <v>52.90363823078503</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.48698824287299</v>
+        <v>53.51916769913477</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>51.61866290598299</v>
+        <v>51.5517984794847</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>51.45539014262494</v>
+        <v>51.38810230847756</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>50.09730609918428</v>
+        <v>50.08456767232696</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>51.44020402626713</v>
+        <v>51.37969699428963</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>48.97228631884278</v>
+        <v>49.01579081287726</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>52.30327970909435</v>
+        <v>52.26591046091828</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.32203853708932</v>
+        <v>51.25751767252348</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52.23527128365268</v>
+        <v>52.26132038142233</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>50.02884919054339</v>
+        <v>50.07961855613035</v>
       </c>
     </row>
     <row r="10">
@@ -956,10 +956,10 @@
         <v>50.62963345472824</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>52.59790260777418</v>
+        <v>52.59790260777417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51.52814204902549</v>
+        <v>51.5281420490255</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>52.15728470982747</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>53.18848153118106</v>
+        <v>53.17909187145622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>51.89340452788328</v>
+        <v>51.80505568396229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.82893172606593</v>
+        <v>52.8336823258941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51.88358510732072</v>
+        <v>51.83030092187168</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>50.9038514257253</v>
+        <v>50.94631951056864</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>50.00107704247038</v>
+        <v>49.95141768294226</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>50.15466840670659</v>
+        <v>50.10262185549109</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>50.14632604216314</v>
+        <v>50.16604901902418</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>52.27754656543024</v>
+        <v>52.26311405943931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51.06587431602949</v>
+        <v>51.09090692824576</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.7031403770853</v>
+        <v>51.67454742346055</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>51.14132236255934</v>
+        <v>51.17529133678917</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.93944030587087</v>
+        <v>53.96057711563195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>52.9072659105149</v>
+        <v>52.87760773146436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.81657140277867</v>
+        <v>53.82948981474041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52.80069596490473</v>
+        <v>52.78913636369251</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>52.0191781362732</v>
+        <v>52.00958975074624</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>51.27111855485992</v>
+        <v>51.2882920364499</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>51.66238850042015</v>
+        <v>51.58569251496118</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>51.08143327380114</v>
+        <v>51.10611831013119</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>52.91980647261595</v>
+        <v>52.90074856076387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.92934917053861</v>
+        <v>51.93362126080303</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.58194016076532</v>
+        <v>52.61337481866087</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>51.84647965287235</v>
+        <v>51.82459349400187</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
         <v>52.89532022821742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52.65685090235024</v>
+        <v>52.65685090235022</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>52.58489914261741</v>
@@ -1089,16 +1089,16 @@
         <v>51.99221532290334</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>51.61277459707257</v>
+        <v>51.61277459707258</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>53.6086656452396</v>
+        <v>53.60866564523959</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52.03215111402654</v>
+        <v>52.03215111402655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52.33020405227261</v>
+        <v>52.3302040522726</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>52.11611123478671</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>53.41656056295275</v>
+        <v>53.42087320233206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>52.12742645553188</v>
+        <v>52.07603660227129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51.85655056036582</v>
+        <v>51.79899694772786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52.10100699746324</v>
+        <v>52.11310205415089</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>52.12372346273864</v>
+        <v>51.96198453058373</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>50.13493564574144</v>
+        <v>50.11213189296269</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>51.04124701195364</v>
+        <v>51.0502337947234</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>51.14391691326698</v>
+        <v>51.10020668861841</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>53.10341480182839</v>
+        <v>53.12499154803248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51.45788992025697</v>
+        <v>51.39068059948871</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.72246413914105</v>
+        <v>51.74314294320722</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>51.78522793272615</v>
+        <v>51.75659766827045</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>54.62437738383333</v>
+        <v>54.65779802620116</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>53.52777480812088</v>
+        <v>53.50750382622631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53.36079506500215</v>
+        <v>53.29146444263336</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>53.05317402732873</v>
+        <v>53.04404033283263</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>53.71174135457203</v>
+        <v>53.59381598650802</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>51.96736366728933</v>
+        <v>51.90090174571059</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>52.79047769864017</v>
+        <v>52.73165916318029</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>52.06367099925019</v>
+        <v>52.04140194929503</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>54.0569844195077</v>
+        <v>54.0485908188387</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52.54414453021774</v>
+        <v>52.54425953138621</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52.87661160337742</v>
+        <v>52.88741763133048</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>52.43464205448651</v>
+        <v>52.43833043807957</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>51.52897612159901</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>50.46315771976915</v>
+        <v>50.46315771976916</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>52.62206509406649</v>
+        <v>52.62212757098165</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.94997345636117</v>
+        <v>51.97177817300577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52.4487219793087</v>
+        <v>52.43058075224585</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51.1975331411797</v>
+        <v>51.20088662245735</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>50.07581485420494</v>
+        <v>50.06289521215074</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>49.42925712824695</v>
+        <v>49.40205553723113</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>50.01223334801958</v>
+        <v>50.01227304593088</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>49.23140282187211</v>
+        <v>49.21492392299506</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>51.39621666582212</v>
+        <v>51.40380875112835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50.75334705195122</v>
+        <v>50.76375945911145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51.26236657539512</v>
+        <v>51.28741341802849</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>50.25174020848323</v>
+        <v>50.25492002923883</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>53.11328953394662</v>
+        <v>53.12565821424582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.55929541114078</v>
+        <v>52.57216874550222</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.9950417753417</v>
+        <v>52.99781425974641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51.79818352887971</v>
+        <v>51.79918236934565</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>50.72792788026095</v>
+        <v>50.71618206557731</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>50.11275728630976</v>
+        <v>50.09242660208444</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>50.74072153892157</v>
+        <v>50.70008045214296</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>49.79529284586197</v>
+        <v>49.78982494851311</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.81380067542732</v>
+        <v>51.83795706667775</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51.22443411221638</v>
+        <v>51.21356670768039</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51.76565266444467</v>
+        <v>51.75318374560469</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>50.65876193396188</v>
+        <v>50.67137271986066</v>
       </c>
     </row>
     <row r="19">
